--- a/medicine/Mort/Cimetière_Notre-Dame_d'Ottawa/Cimetière_Notre-Dame_d'Ottawa.xlsx
+++ b/medicine/Mort/Cimetière_Notre-Dame_d'Ottawa/Cimetière_Notre-Dame_d'Ottawa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_Notre-Dame_d%27Ottawa</t>
+          <t>Cimetière_Notre-Dame_d'Ottawa</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le cimetière Notre-Dame d'Ottawa, situé au 455 chemin Montréal (en) à Ottawa, Ontario, Canada, a ouvert en 1872[1]. Il est le cimetière catholique le plus important à Ottawa. Il est bordé à l'ouest par le quartier francophone Vanier, à l'est par le boulevard St-Laurent et au sud du cimetière Beechwood.
-Le cimetière est le lieu du dernier repos de plus de 130 000 personnes et contient les tombes de 115 personnes au service du Commonwealth, 40 personnes de la Première Guerre mondiale et 75 personnes de la Seconde Guerre mondiale guerre[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le cimetière Notre-Dame d'Ottawa, situé au 455 chemin Montréal (en) à Ottawa, Ontario, Canada, a ouvert en 1872. Il est le cimetière catholique le plus important à Ottawa. Il est bordé à l'ouest par le quartier francophone Vanier, à l'est par le boulevard St-Laurent et au sud du cimetière Beechwood.
+Le cimetière est le lieu du dernier repos de plus de 130 000 personnes et contient les tombes de 115 personnes au service du Commonwealth, 40 personnes de la Première Guerre mondiale et 75 personnes de la Seconde Guerre mondiale guerre.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_Notre-Dame_d%27Ottawa</t>
+          <t>Cimetière_Notre-Dame_d'Ottawa</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Inhumés notables</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Janis Babson (en) (1950–1961), a attiré l'attention à la transplantation de la cornée comme un moyen de restaurer la vision.
 Champlain Marcil (1920–2010), photographe au quotidien Le Droit.
